--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-03_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-03_end.xlsx
@@ -364,7 +364,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="タルラ"] それは違う、違うわ！　そんな風に物事を見てはだめ！
+    <t xml:space="preserve">[name="タルラ"] いや違う、そうじゃない。力不足だろうが、問題はすぐ目の前で起きているんだ！
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-03_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-03_end.xlsx
@@ -420,15 +420,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"] Is that fire your doing!? You’re the one who set them alight... guh! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] Alina, I’m sorry. This will surely mean even worse to come for the village. But I just couldn’t stand it.  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] I just couldn’t stand this sort of...
+    <t xml:space="preserve">[name="Alina"] Is that fire your doing!? You're the one who set them alight... guh! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Alina, I'm sorry. This will surely mean even worse to come for the village. But I just couldn't stand it.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] I just couldn't stand this sort of...
 </t>
   </si>
   <si>
@@ -436,27 +436,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Facing her, Talulah was taken aback. Alina met her gaze with an expression she’d never seen her wear before. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"] There’s a fire in your eyes.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"] I knew from the moment you came to this village, you’d never be willing just to stay here.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"] You came from somewhere. Where you came from, you’ll go back to. This village can’t hold you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] I won’t go back. Don’t look at me like that... 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"] But within your eyes, truly, there’s a fire.
+    <t xml:space="preserve">Facing her, Talulah was taken aback. Alina met her gaze with an expression she'd never seen her wear before. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] There's a fire in your eyes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] I knew from the moment you came to this village, you'd never be willing just to stay here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] You came from somewhere. Where you came from, you'll go back to. This village can't hold you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] I won't go back. Don't look at me like that... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] But within your eyes, truly, there's a fire.
 </t>
   </si>
   <si>
@@ -464,7 +464,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"] It shouldn’t have been now, Talulah. Not now. 
+    <t xml:space="preserve">[name="Alina"] It shouldn't have been now, Talulah. Not now. 
 </t>
   </si>
   <si>
@@ -476,7 +476,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Woman"] Talulah! Talulah! Run, now, run! And don’t look back! Don’t ever come back!     
+    <t xml:space="preserve">[name="Old Woman"] Talulah! Talulah! Run, now, run! And don't look back! Don't ever come back!     
 </t>
   </si>
   <si>
@@ -492,7 +492,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"] We’re Infected, but none of the villagers are!
+    <t xml:space="preserve">[name="Alina"] We're Infected, but none of the villagers are!
 </t>
   </si>
   <si>
@@ -500,11 +500,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"] I’m Infected too, Talulah. I’m Infected too. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"] *Pant*, *pant*... This is... where we’d planned to move. We had everything ready... but... 
+    <t xml:space="preserve">[name="Alina"] I'm Infected too, Talulah. I'm Infected too. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] *Pant*, *pant*... This is... where we'd planned to move. We had everything ready... but... 
 </t>
   </si>
   <si>
@@ -512,7 +512,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] We can’t let them do this again... we can’t let them...
+    <t xml:space="preserve">[name="Talulah"] We can't let them do this again... we can't let them...
 </t>
   </si>
   <si>
@@ -532,11 +532,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"] It was his idea. That way, the Patrol wouldn’t come again, and hopefully, that would’ve been that. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"] No matter how much strength you have, you can’t resist the Patrol Unit.
+    <t xml:space="preserve">[name="Alina"] It was his idea. That way, the Patrol wouldn't come again, and hopefully, that would've been that. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] No matter how much strength you have, you can't resist the Patrol Unit.
 </t>
   </si>
   <si>
@@ -544,23 +544,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"] And then? What if the Gendarmerie came? What if the city’s garrisons and all the nobles’ soldiers came?  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] We just don’t have the firepower. Once we’ve accumulated enough strength...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] Because it’s not right. It’s not right! We can’t just look on like this! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] All these wicked things right before our eyes, but we turn away, just to save ourselves?! That’s not right!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] ...That’s selfish. Heartless, even.
+    <t xml:space="preserve">[name="Alina"] And then? What if the Gendarmerie came? What if the city's garrisons and all the nobles' soldiers came?  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] We just don't have the firepower. Once we've accumulated enough strength...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Because it's not right. It's not right! We can't just look on like this! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] All these wicked things right before our eyes, but we turn away, just to save ourselves?! That's not right!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] ...That's selfish. Heartless, even.
 </t>
   </si>
   <si>
@@ -568,7 +568,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"] I can’t answer these questions of yours, Talulah. You’ve studied more than I have, that I know. 
+    <t xml:space="preserve">[name="Alina"] I can't answer these questions of yours, Talulah. You've studied more than I have, that I know. 
 </t>
   </si>
   <si>
@@ -576,7 +576,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"] You’re so clever. You can understand that.
+    <t xml:space="preserve">[name="Alina"] You're so clever. You can understand that.
 </t>
   </si>
   <si>
@@ -584,7 +584,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] ...I’ll be back.
+    <t xml:space="preserve">[name="Talulah"] ...I'll be back.
 </t>
   </si>
   <si>
